--- a/www/ig/fhir/sas/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T14:00:55+00:00</t>
+    <t>2024-09-05T16:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sas/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T16:04:17+00:00</t>
+    <t>2024-12-10T11:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Schedule, dérivé de FrSchedule, pour le service d'agrégation de créneaux de la plateforme SAS (Service d'accès aux soins)</t>
+    <t>Profil de Schedule, dérivé de FrSchedule, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/sas/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T11:32:52+00:00</t>
+    <t>2025-11-24T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1071,15 +1071,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.1484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1090,21 +1090,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.6328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.55078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
